--- a/very_new/data with multiple sheets.xlsx
+++ b/very_new/data with multiple sheets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/millenium/Documents/bb_models/very_new/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{247961CF-CD86-3B49-AFB7-5260925B6B59}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96CE5888-AC05-AB45-A92A-174153DDC63B}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35600" yWindow="-1580" windowWidth="20820" windowHeight="14340" activeTab="3" xr2:uid="{057FB4EA-0B46-3341-8C31-8972DD02FFCB}"/>
+    <workbookView xWindow="7980" yWindow="440" windowWidth="20820" windowHeight="14340" activeTab="4" xr2:uid="{057FB4EA-0B46-3341-8C31-8972DD02FFCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29944,7 +29944,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74DBE916-7ECF-49E1-9B1F-4D4EB7118DAC}">
   <dimension ref="A1:AM71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V55" zoomScale="94" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="V55" zoomScale="94" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="Y57" sqref="Y57"/>
     </sheetView>
   </sheetViews>
@@ -37769,10 +37769,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26CC320B-08A1-0F41-8DB6-9774B9A888F8}">
-  <dimension ref="A1:AM49"/>
+  <dimension ref="A1:AM50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I63" sqref="I63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -43039,6 +43040,136 @@
       </c>
       <c r="AM49" t="s">
         <v>398</v>
+      </c>
+    </row>
+    <row r="50" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="H50">
+        <f>AVERAGE(H2:H49)</f>
+        <v>16.284583333333334</v>
+      </c>
+      <c r="I50">
+        <f t="shared" ref="I50:AM50" si="0">AVERAGE(I2:I49)</f>
+        <v>12.852083333333338</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="0"/>
+        <v>24.455833333333334</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="0"/>
+        <v>115.33333333333333</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="0"/>
+        <v>6.34</v>
+      </c>
+      <c r="M50" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N50" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="0"/>
+        <v>114.10416666666667</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="0"/>
+        <v>3.8812499999999996</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="0"/>
+        <v>2.0381250000000004</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="0"/>
+        <v>70.861041666666651</v>
+      </c>
+      <c r="S50">
+        <f t="shared" si="0"/>
+        <v>30.301458333333343</v>
+      </c>
+      <c r="T50">
+        <f t="shared" si="0"/>
+        <v>21.406250000000004</v>
+      </c>
+      <c r="U50">
+        <f t="shared" si="0"/>
+        <v>75.697916666666657</v>
+      </c>
+      <c r="V50">
+        <f t="shared" si="0"/>
+        <v>14.397916666666667</v>
+      </c>
+      <c r="W50">
+        <f t="shared" si="0"/>
+        <v>8.3520833333333346</v>
+      </c>
+      <c r="X50">
+        <f t="shared" si="0"/>
+        <v>6.5541666666666663</v>
+      </c>
+      <c r="Y50">
+        <f t="shared" si="0"/>
+        <v>19.335416666666664</v>
+      </c>
+      <c r="Z50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA50" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB50" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC50" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD50">
+        <f t="shared" si="0"/>
+        <v>50.177083333333336</v>
+      </c>
+      <c r="AE50" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF50">
+        <f t="shared" si="0"/>
+        <v>269.58333333333331</v>
+      </c>
+      <c r="AG50" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH50">
+        <f t="shared" si="0"/>
+        <v>25.385297797500002</v>
+      </c>
+      <c r="AI50">
+        <f t="shared" si="0"/>
+        <v>21.66458333333334</v>
+      </c>
+      <c r="AJ50">
+        <f t="shared" si="0"/>
+        <v>21.806875000000005</v>
+      </c>
+      <c r="AK50">
+        <f t="shared" si="0"/>
+        <v>35.311702127659565</v>
+      </c>
+      <c r="AL50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AM50" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
